--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.5202318001816</v>
+        <v>23.496322</v>
       </c>
       <c r="H2">
-        <v>22.5202318001816</v>
+        <v>70.488966</v>
       </c>
       <c r="I2">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="J2">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N2">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O2">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P2">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q2">
-        <v>18.16065066212019</v>
+        <v>19.66589676280866</v>
       </c>
       <c r="R2">
-        <v>18.16065066212019</v>
+        <v>176.993070865278</v>
       </c>
       <c r="S2">
-        <v>0.009200147193794141</v>
+        <v>0.009177949320725241</v>
       </c>
       <c r="T2">
-        <v>0.009200147193794141</v>
+        <v>0.009177949320725243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.5202318001816</v>
+        <v>23.496322</v>
       </c>
       <c r="H3">
-        <v>22.5202318001816</v>
+        <v>70.488966</v>
       </c>
       <c r="I3">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="J3">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N3">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q3">
-        <v>54.45953302886921</v>
+        <v>57.03380503880734</v>
       </c>
       <c r="R3">
-        <v>54.45953302886921</v>
+        <v>513.304245349266</v>
       </c>
       <c r="S3">
-        <v>0.02758908418496038</v>
+        <v>0.02661731516887809</v>
       </c>
       <c r="T3">
-        <v>0.02758908418496038</v>
+        <v>0.02661731516887809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.5202318001816</v>
+        <v>23.496322</v>
       </c>
       <c r="H4">
-        <v>22.5202318001816</v>
+        <v>70.488966</v>
       </c>
       <c r="I4">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="J4">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N4">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q4">
-        <v>179.9970188558416</v>
+        <v>206.4312054294967</v>
       </c>
       <c r="R4">
-        <v>179.9970188558416</v>
+        <v>1857.88084886547</v>
       </c>
       <c r="S4">
-        <v>0.09118610884201384</v>
+        <v>0.0963401346248883</v>
       </c>
       <c r="T4">
-        <v>0.09118610884201384</v>
+        <v>0.0963401346248883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>124.785930724697</v>
+        <v>124.9120333333333</v>
       </c>
       <c r="H5">
-        <v>124.785930724697</v>
+        <v>374.7361</v>
       </c>
       <c r="I5">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="J5">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N5">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O5">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P5">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q5">
-        <v>100.629234882941</v>
+        <v>104.5485821979222</v>
       </c>
       <c r="R5">
-        <v>100.629234882941</v>
+        <v>940.9372397812998</v>
       </c>
       <c r="S5">
-        <v>0.05097855743973975</v>
+        <v>0.04879216038502004</v>
       </c>
       <c r="T5">
-        <v>0.05097855743973975</v>
+        <v>0.04879216038502006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>124.785930724697</v>
+        <v>124.9120333333333</v>
       </c>
       <c r="H6">
-        <v>124.785930724697</v>
+        <v>374.7361</v>
       </c>
       <c r="I6">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="J6">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N6">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O6">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P6">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q6">
-        <v>301.7634798850082</v>
+        <v>303.2052657490111</v>
       </c>
       <c r="R6">
-        <v>301.7634798850082</v>
+        <v>2728.8473917411</v>
       </c>
       <c r="S6">
-        <v>0.1528727403167555</v>
+        <v>0.141503974946323</v>
       </c>
       <c r="T6">
-        <v>0.1528727403167555</v>
+        <v>0.141503974946323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>124.785930724697</v>
+        <v>124.9120333333333</v>
       </c>
       <c r="H7">
-        <v>124.785930724697</v>
+        <v>374.7361</v>
       </c>
       <c r="I7">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="J7">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N7">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O7">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P7">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q7">
-        <v>997.3740823314217</v>
+        <v>1097.437361202722</v>
       </c>
       <c r="R7">
-        <v>997.3740823314217</v>
+        <v>9876.936250824499</v>
       </c>
       <c r="S7">
-        <v>0.5052675994623849</v>
+        <v>0.5121670577889538</v>
       </c>
       <c r="T7">
-        <v>0.5052675994623849</v>
+        <v>0.5121670577889538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.667050449842</v>
+        <v>29.411685</v>
       </c>
       <c r="H8">
-        <v>28.667050449842</v>
+        <v>88.235055</v>
       </c>
       <c r="I8">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="J8">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N8">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O8">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P8">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q8">
-        <v>23.11753685984519</v>
+        <v>24.616923484035</v>
       </c>
       <c r="R8">
-        <v>23.11753685984519</v>
+        <v>221.552311356315</v>
       </c>
       <c r="S8">
-        <v>0.01171129525178076</v>
+        <v>0.01148856209780981</v>
       </c>
       <c r="T8">
-        <v>0.01171129525178076</v>
+        <v>0.01148856209780981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.667050449842</v>
+        <v>29.411685</v>
       </c>
       <c r="H9">
-        <v>28.667050449842</v>
+        <v>88.235055</v>
       </c>
       <c r="I9">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="J9">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N9">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O9">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P9">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q9">
-        <v>69.32407244586359</v>
+        <v>71.39246338864501</v>
       </c>
       <c r="R9">
-        <v>69.32407244586359</v>
+        <v>642.5321704978051</v>
       </c>
       <c r="S9">
-        <v>0.03511942839721657</v>
+        <v>0.03331840997466601</v>
       </c>
       <c r="T9">
-        <v>0.03511942839721657</v>
+        <v>0.03331840997466601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.667050449842</v>
+        <v>29.411685</v>
       </c>
       <c r="H10">
-        <v>28.667050449842</v>
+        <v>88.235055</v>
       </c>
       <c r="I10">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="J10">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N10">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O10">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P10">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q10">
-        <v>229.1265767664062</v>
+        <v>258.401701690275</v>
       </c>
       <c r="R10">
-        <v>229.1265767664062</v>
+        <v>2325.615315212475</v>
       </c>
       <c r="S10">
-        <v>0.1160750389113542</v>
+        <v>0.1205944356927356</v>
       </c>
       <c r="T10">
-        <v>0.1160750389113542</v>
+        <v>0.1205944356927356</v>
       </c>
     </row>
   </sheetData>
